--- a/biology/Virologie/Cycle_lytique/Cycle_lytique.xlsx
+++ b/biology/Virologie/Cycle_lytique/Cycle_lytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle lytique est une des deux voies de la reproduction virale, l'autre étant le cycle lysogénique.
 </t>
@@ -511,7 +523,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son déroulement, le virus a intégré la cellule hôte et détourne activement la machinerie cellulaire vers la production de virions, autrement dit la réplication virale entre dans sa phase active. À son aboutissement, cette phase peut provoquer la lyse de la cellule par accumulation intracellulaire de virions ou l'exocytose de ces derniers (cas de beaucoup de virus enveloppés et girus).
 La plupart du temps ce cycle lytique s'entend comme la voie de réplication virale par excellence et par défaut, puisque la lysogénie n'est qu'une voie "intermédiaire" soit vers le cycle lytique (ex : alternance des deux voies chez le phage lambda), soit vers une inactivation du virus par la cellule hôte.
@@ -543,9 +557,11 @@
           <t>Terminologie controversée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dichotomie lytique/lysogénique a récemment été critiquée[1], car les deux notions ne sont pas à opposer, ne représentent pas la diversité des mécanismes d'infections des phages et sont souvent la source de classification et d'usage de mots approximatifs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dichotomie lytique/lysogénique a récemment été critiquée, car les deux notions ne sont pas à opposer, ne représentent pas la diversité des mécanismes d'infections des phages et sont souvent la source de classification et d'usage de mots approximatifs.
 Les auteurs proposent de classer les types d'infection en 4 catégories :
 type I : phages à infection lytique et non tempérée (ex. : T4, T5) ;
 type II : phages à infection chronique et non tempérée (ex. : M13) ;
